--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551600.7713824935</v>
+        <v>547435.6724992598</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33945101.33334412</v>
+        <v>33945101.33334411</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6534713.651117923</v>
+        <v>6534713.651117918</v>
       </c>
     </row>
     <row r="9">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.066753047649844</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>3.262548922260276</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,41 +992,41 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.677227098474519</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,22 +1104,22 @@
         <v>3.262548922260276</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.40220350370247</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1226,52 +1226,52 @@
         <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>30.58073358141466</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>30.58073358141466</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>389.9426108451088</v>
+        <v>184.3415781845968</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>2.538409905965891</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>124.9554984777213</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>140.2446293853757</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>348.6717361762551</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>106.5451687179162</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>224.4984341841464</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>388.1111211665034</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>181.6788821379409</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>153.4633281389061</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>26.58566199952584</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811444</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>225.7222423158693</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>12.52212050206124</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>168.7035365655706</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>132.3861317936025</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>43.34540231323918</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>299.851193042396</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>40.55929366509694</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.0639424294076</v>
       </c>
       <c r="H25" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>220.5922543348238</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.470570004532869</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>297.6131296163376</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.06495995625698</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>224.4354171788897</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2800,16 +2800,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>29.41399112783738</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.0172048696386</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>78.7829831537267</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0639424294076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T31" t="n">
-        <v>239.69731283314</v>
+        <v>51.28006429246541</v>
       </c>
       <c r="U31" t="n">
         <v>275.6011387506063</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>220.8711145546812</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>230.7875301326571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3204,7 +3204,7 @@
         <v>163.0639424294076</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I34" t="n">
         <v>61.56737989728833</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T34" t="n">
         <v>239.69731283314</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>11.10640759539974</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>212.2667940992553</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V35" t="n">
-        <v>283.4516582442039</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>56.75711632180575</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>141.3715730503851</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>239.69731283314</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V37" t="n">
-        <v>170.7319206357471</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.0743295211861</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>371.3531418607282</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>38.54651292818659</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>75.89241054653465</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>239.69731283314</v>
       </c>
       <c r="U40" t="n">
-        <v>99.57024371595746</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>248.620842449372</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>57.53457600032029</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>18.3882866336243</v>
       </c>
       <c r="G43" t="n">
         <v>163.0639424294076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.69731283314</v>
@@ -3957,13 +3957,13 @@
         <v>275.6011387506063</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>187.9289527041388</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>266.5031634764439</v>
       </c>
       <c r="F44" t="n">
-        <v>326.3222218675133</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0639424294076</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>218.0049434541179</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6011387506063</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>134.828094718281</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.556507875659889</v>
+        <v>5.644137216720338</v>
       </c>
       <c r="C5" t="n">
-        <v>3.556507875659889</v>
+        <v>5.644137216720338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2610039137808221</v>
+        <v>5.644137216720338</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2610039137808221</v>
+        <v>2.348633254841271</v>
       </c>
       <c r="F5" t="n">
         <v>0.2610039137808221</v>
@@ -4567,10 +4567,10 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="J5" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713748</v>
       </c>
       <c r="K5" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589628</v>
       </c>
       <c r="L5" t="n">
         <v>4.180237967355343</v>
@@ -4606,13 +4606,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W5" t="n">
-        <v>13.05019568904111</v>
+        <v>12.23514514047847</v>
       </c>
       <c r="X5" t="n">
-        <v>9.754691727162038</v>
+        <v>8.939641178599405</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.459187765282971</v>
+        <v>5.644137216720338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.96527371021973</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C6" t="n">
-        <v>2.96527371021973</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D6" t="n">
-        <v>2.96527371021973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E6" t="n">
-        <v>2.96527371021973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F6" t="n">
-        <v>2.96527371021973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96527371021973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H6" t="n">
         <v>0.2610039137808221</v>
@@ -4673,25 +4673,25 @@
         <v>9.556281633977864</v>
       </c>
       <c r="S6" t="n">
-        <v>9.556281633977864</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="T6" t="n">
-        <v>9.556281633977864</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="U6" t="n">
-        <v>9.556281633977864</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V6" t="n">
-        <v>6.260777672098797</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W6" t="n">
-        <v>6.260777672098797</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X6" t="n">
-        <v>6.260777672098797</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.96527371021973</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="7">
@@ -4752,19 +4752,19 @@
         <v>1.677371089237863</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2610039137808221</v>
+        <v>1.677371089237863</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2610039137808221</v>
+        <v>1.677371089237863</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2610039137808221</v>
+        <v>1.677371089237863</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2610039137808221</v>
+        <v>1.677371089237863</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2610039137808221</v>
+        <v>1.677371089237863</v>
       </c>
       <c r="X7" t="n">
         <v>0.2610039137808221</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4910,25 +4910,25 @@
         <v>117.6594827452864</v>
       </c>
       <c r="S9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="T9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="U9" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="V9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4986,28 +4986,28 @@
         <v>61.2725530619707</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.639935903077</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="C11" t="n">
-        <v>1738.639935903077</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.730151077521</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="E11" t="n">
-        <v>868.9554062358166</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="F11" t="n">
-        <v>441.0879766450243</v>
+        <v>233.4101658768303</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228014</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W11" t="n">
-        <v>1738.639935903077</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X11" t="n">
-        <v>1738.639935903077</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y11" t="n">
-        <v>1738.639935903077</v>
+        <v>1087.57716595253</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663903</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030326</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495858</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765395</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927011</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668978</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210679</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
         <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U12" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280528</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669327</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461535</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1113136517137</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5211,7 +5211,7 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1668.767762136888</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.74135772318</v>
+        <v>1567.667316986177</v>
       </c>
       <c r="X13" t="n">
-        <v>1151.349603056593</v>
+        <v>1322.27556231959</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.9299323707007</v>
+        <v>1094.855891633698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1180.705317421392</v>
+        <v>616.7352229431568</v>
       </c>
       <c r="C14" t="n">
-        <v>1180.705317421392</v>
+        <v>616.7352229431568</v>
       </c>
       <c r="D14" t="n">
-        <v>744.7955325958366</v>
+        <v>616.7352229431568</v>
       </c>
       <c r="E14" t="n">
-        <v>744.7955325958366</v>
+        <v>616.7352229431568</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>188.8677933523646</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>188.8677933523646</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895472</v>
@@ -5281,10 +5281,10 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>2008.133904542428</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X14" t="n">
-        <v>1588.991441121739</v>
+        <v>1025.021346643503</v>
       </c>
       <c r="Y14" t="n">
-        <v>1180.705317421392</v>
+        <v>616.7352229431568</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5354,16 +5354,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>753.852136908379</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C16" t="n">
-        <v>753.852136908379</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
         <v>110.3018381127067</v>
@@ -5442,16 +5442,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>733.422710770687</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675981</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X16" t="n">
-        <v>1173.090426313258</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.6707556273661</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1536.32965943808</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.32965943808</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="D17" t="n">
-        <v>1536.32965943808</v>
+        <v>630.223265231034</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>630.223265231034</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>630.223265231034</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>230.7205739105112</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895472</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.472122858769</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.32965943808</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.32965943808</v>
+        <v>1492.432620541497</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>908.8655996749508</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>908.8655996749508</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>301.8972225401134</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
@@ -5679,16 +5679,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>733.422710770687</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1806.693246240844</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498297</v>
+        <v>1924.459127588606</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5715,10 +5715,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1136.285270360843</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.8655996749508</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1346.991198798029</v>
+        <v>972.7977975613611</v>
       </c>
       <c r="C20" t="n">
-        <v>908.8487259814518</v>
+        <v>972.7977975613611</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>972.7977975613611</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5788,16 +5788,16 @@
         <v>2148.556325916848</v>
       </c>
       <c r="V20" t="n">
-        <v>1785.939375850675</v>
+        <v>1785.939375850674</v>
       </c>
       <c r="W20" t="n">
-        <v>1773.290769282936</v>
+        <v>1381.083921261708</v>
       </c>
       <c r="X20" t="n">
-        <v>1773.290769282936</v>
+        <v>1381.083921261708</v>
       </c>
       <c r="Y20" t="n">
-        <v>1773.290769282936</v>
+        <v>972.7977975613611</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J21" t="n">
         <v>175.3166270668979</v>
@@ -5846,13 +5846,13 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
         <v>1676.651116233592</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>959.9477806029472</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>787.3860690861721</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>621.5080762876948</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092376</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827552</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789086</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T22" t="n">
-        <v>2189.91996475524</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="U22" t="n">
-        <v>1911.533332803983</v>
+        <v>1695.26718290412</v>
       </c>
       <c r="V22" t="n">
-        <v>1624.577824674414</v>
+        <v>1408.31167477455</v>
       </c>
       <c r="W22" t="n">
-        <v>1624.577824674414</v>
+        <v>1274.588309326467</v>
       </c>
       <c r="X22" t="n">
-        <v>1379.186070007826</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="Y22" t="n">
-        <v>1151.766399321934</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1309.957553245081</v>
+        <v>1366.150871114553</v>
       </c>
       <c r="C23" t="n">
-        <v>1309.957553245081</v>
+        <v>928.0083982979768</v>
       </c>
       <c r="D23" t="n">
-        <v>1309.957553245081</v>
+        <v>492.0986134724213</v>
       </c>
       <c r="E23" t="n">
-        <v>876.1828084033759</v>
+        <v>492.0986134724213</v>
       </c>
       <c r="F23" t="n">
-        <v>448.3153788125837</v>
+        <v>492.0986134724213</v>
       </c>
       <c r="G23" t="n">
-        <v>48.87985142582146</v>
+        <v>92.66308608565902</v>
       </c>
       <c r="H23" t="n">
         <v>48.87985142582146</v>
@@ -5989,13 +5989,13 @@
         <v>122.6176114159378</v>
       </c>
       <c r="J23" t="n">
-        <v>285.8514025294304</v>
+        <v>285.8514025294307</v>
       </c>
       <c r="K23" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133957</v>
       </c>
       <c r="L23" t="n">
-        <v>834.0004692019342</v>
+        <v>834.0004692019343</v>
       </c>
       <c r="M23" t="n">
         <v>1171.707067812895</v>
@@ -6016,25 +6016,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S23" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="T23" t="n">
-        <v>2443.992571291073</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.992571291073</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.112578318955</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="W23" t="n">
-        <v>1736.257123729989</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="X23" t="n">
-        <v>1736.257123729989</v>
+        <v>1774.4369948149</v>
       </c>
       <c r="Y23" t="n">
-        <v>1736.257123729989</v>
+        <v>1366.150871114553</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>181.5301595233808</v>
       </c>
       <c r="K24" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324146</v>
       </c>
       <c r="L24" t="n">
-        <v>571.1269713228269</v>
+        <v>512.1816048303893</v>
       </c>
       <c r="M24" t="n">
-        <v>831.8601310926884</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N24" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O24" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P24" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.236480910291</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>798.0941264563492</v>
+        <v>898.4956664875779</v>
       </c>
       <c r="C25" t="n">
-        <v>625.5324149395741</v>
+        <v>725.9339549708028</v>
       </c>
       <c r="D25" t="n">
-        <v>625.5324149395741</v>
+        <v>560.0559621723255</v>
       </c>
       <c r="E25" t="n">
-        <v>584.5634314394762</v>
+        <v>390.2979584230628</v>
       </c>
       <c r="F25" t="n">
-        <v>407.8563774012324</v>
+        <v>213.590904384819</v>
       </c>
       <c r="G25" t="n">
-        <v>243.1453244422349</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H25" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I25" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="J25" t="n">
-        <v>109.8731371388674</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K25" t="n">
-        <v>210.1038419624147</v>
+        <v>571.4419816982402</v>
       </c>
       <c r="L25" t="n">
-        <v>539.0117042834557</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M25" t="n">
-        <v>1133.728595194606</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N25" t="n">
-        <v>1708.004883038852</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O25" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P25" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q25" t="n">
         <v>2426.193797186283</v>
@@ -6177,22 +6177,22 @@
         <v>2300.09107170807</v>
       </c>
       <c r="T25" t="n">
-        <v>2300.09107170807</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U25" t="n">
-        <v>2021.706083071094</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="V25" t="n">
-        <v>1734.750574941524</v>
+        <v>1835.152114972753</v>
       </c>
       <c r="W25" t="n">
-        <v>1462.724170527816</v>
+        <v>1563.125710559044</v>
       </c>
       <c r="X25" t="n">
-        <v>1217.332415861228</v>
+        <v>1317.733955892457</v>
       </c>
       <c r="Y25" t="n">
-        <v>989.9127451753363</v>
+        <v>1090.314285206565</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>484.789636251377</v>
+        <v>1583.358990039416</v>
       </c>
       <c r="C26" t="n">
-        <v>484.789636251377</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="D26" t="n">
-        <v>48.87985142582146</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="E26" t="n">
-        <v>48.87985142582146</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="F26" t="n">
-        <v>48.87985142582146</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G26" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H26" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="I26" t="n">
-        <v>122.6176114159378</v>
+        <v>122.6176114159381</v>
       </c>
       <c r="J26" t="n">
         <v>285.8514025294307</v>
@@ -6253,25 +6253,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S26" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="T26" t="n">
-        <v>2443.992571291073</v>
+        <v>2396.50056832873</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.992571291073</v>
+        <v>2396.50056832873</v>
       </c>
       <c r="V26" t="n">
-        <v>2143.373248446287</v>
+        <v>2396.50056832873</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.517793857321</v>
+        <v>1991.645113739763</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.375330436631</v>
+        <v>1991.645113739763</v>
       </c>
       <c r="Y26" t="n">
-        <v>911.0892067362847</v>
+        <v>1583.358990039416</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1310.72746418458</v>
+        <v>543.8616041950426</v>
       </c>
       <c r="C27" t="n">
-        <v>1204.271003021223</v>
+        <v>437.4051430316849</v>
       </c>
       <c r="D27" t="n">
-        <v>1109.180714167776</v>
+        <v>342.3148541782381</v>
       </c>
       <c r="E27" t="n">
-        <v>1015.06029949473</v>
+        <v>248.1944395051918</v>
       </c>
       <c r="F27" t="n">
-        <v>931.6764611108913</v>
+        <v>164.8106011213534</v>
       </c>
       <c r="G27" t="n">
-        <v>847.3412965732202</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H27" t="n">
-        <v>815.7457114153593</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I27" t="n">
-        <v>851.1750917891418</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J27" t="n">
-        <v>948.3960195129187</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K27" t="n">
-        <v>1114.56207011439</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L27" t="n">
-        <v>1279.047464819927</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M27" t="n">
-        <v>1539.780624589789</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N27" t="n">
-        <v>1807.414615263028</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O27" t="n">
-        <v>2052.247430184885</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P27" t="n">
-        <v>2248.747349001922</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q27" t="n">
-        <v>2380.102340899829</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R27" t="n">
-        <v>2443.992571291073</v>
+        <v>1677.126711301534</v>
       </c>
       <c r="S27" t="n">
-        <v>2400.039033764342</v>
+        <v>1633.173173774804</v>
       </c>
       <c r="T27" t="n">
-        <v>2274.092325425019</v>
+        <v>1507.226465435481</v>
       </c>
       <c r="U27" t="n">
-        <v>2097.82485245105</v>
+        <v>1330.958992461512</v>
       </c>
       <c r="V27" t="n">
-        <v>1898.707334513049</v>
+        <v>1131.841474523511</v>
       </c>
       <c r="W27" t="n">
-        <v>1713.384580246243</v>
+        <v>946.5187202567049</v>
       </c>
       <c r="X27" t="n">
-        <v>1558.517144485123</v>
+        <v>791.6512844955849</v>
       </c>
       <c r="Y27" t="n">
-        <v>1432.031365264344</v>
+        <v>665.1655052748057</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>960.6849391111014</v>
+        <v>898.4956664875779</v>
       </c>
       <c r="C28" t="n">
-        <v>788.1232275943263</v>
+        <v>725.9339549708028</v>
       </c>
       <c r="D28" t="n">
-        <v>622.245234795849</v>
+        <v>560.0559621723255</v>
       </c>
       <c r="E28" t="n">
-        <v>452.4872310465863</v>
+        <v>390.2979584230628</v>
       </c>
       <c r="F28" t="n">
-        <v>275.7801770083425</v>
+        <v>213.590904384819</v>
       </c>
       <c r="G28" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H28" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I28" t="n">
         <v>48.87985142582146</v>
@@ -6390,16 +6390,16 @@
         <v>210.1038419624147</v>
       </c>
       <c r="L28" t="n">
-        <v>756.5745176806336</v>
+        <v>539.0117042834557</v>
       </c>
       <c r="M28" t="n">
-        <v>891.8075414108705</v>
+        <v>1133.728595194606</v>
       </c>
       <c r="N28" t="n">
-        <v>1466.083829255117</v>
+        <v>1708.004883038852</v>
       </c>
       <c r="O28" t="n">
-        <v>2007.692593238059</v>
+        <v>2249.613647021794</v>
       </c>
       <c r="P28" t="n">
         <v>2353.95396759867</v>
@@ -6411,25 +6411,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S28" t="n">
-        <v>2443.992571291073</v>
+        <v>2400.492611739298</v>
       </c>
       <c r="T28" t="n">
-        <v>2443.992571291073</v>
+        <v>2400.492611739298</v>
       </c>
       <c r="U28" t="n">
-        <v>2165.607582654096</v>
+        <v>2122.107623102322</v>
       </c>
       <c r="V28" t="n">
-        <v>1878.652074524527</v>
+        <v>1835.152114972753</v>
       </c>
       <c r="W28" t="n">
-        <v>1606.625670110818</v>
+        <v>1563.125710559044</v>
       </c>
       <c r="X28" t="n">
-        <v>1379.92322851598</v>
+        <v>1317.733955892457</v>
       </c>
       <c r="Y28" t="n">
-        <v>1152.503557830089</v>
+        <v>1090.314285206565</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1784.574283500451</v>
+        <v>952.6432112172844</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.431810683874</v>
+        <v>514.5007384007076</v>
       </c>
       <c r="D29" t="n">
-        <v>910.5220258583186</v>
+        <v>78.59095357515213</v>
       </c>
       <c r="E29" t="n">
-        <v>476.7472810166137</v>
+        <v>78.59095357515213</v>
       </c>
       <c r="F29" t="n">
-        <v>48.87985142582146</v>
+        <v>78.59095357515213</v>
       </c>
       <c r="G29" t="n">
-        <v>48.87985142582146</v>
+        <v>78.59095357515213</v>
       </c>
       <c r="H29" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I29" t="n">
-        <v>122.617611415938</v>
+        <v>122.6176114159376</v>
       </c>
       <c r="J29" t="n">
-        <v>285.8514025294307</v>
+        <v>285.8514025294302</v>
       </c>
       <c r="K29" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133952</v>
       </c>
       <c r="L29" t="n">
-        <v>834.0004692019343</v>
+        <v>834.0004692019339</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.707067812896</v>
+        <v>1171.707067812895</v>
       </c>
       <c r="N29" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O29" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P29" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q29" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="T29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.992571291073</v>
+        <v>2184.927252927287</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.992571291073</v>
+        <v>2184.927252927287</v>
       </c>
       <c r="W29" t="n">
-        <v>2039.137116702106</v>
+        <v>1780.07179833832</v>
       </c>
       <c r="X29" t="n">
-        <v>2039.137116702106</v>
+        <v>1360.929334917631</v>
       </c>
       <c r="Y29" t="n">
-        <v>1784.574283500451</v>
+        <v>952.6432112172844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1310.72746418458</v>
+        <v>543.8616041950426</v>
       </c>
       <c r="C30" t="n">
-        <v>1204.271003021223</v>
+        <v>437.4051430316849</v>
       </c>
       <c r="D30" t="n">
-        <v>1109.180714167776</v>
+        <v>342.3148541782381</v>
       </c>
       <c r="E30" t="n">
-        <v>1015.06029949473</v>
+        <v>248.1944395051918</v>
       </c>
       <c r="F30" t="n">
-        <v>931.6764611108913</v>
+        <v>164.8106011213534</v>
       </c>
       <c r="G30" t="n">
-        <v>847.3412965732202</v>
+        <v>80.47543658368232</v>
       </c>
       <c r="H30" t="n">
-        <v>815.7457114153593</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I30" t="n">
-        <v>851.1750917891418</v>
+        <v>84.30923179960392</v>
       </c>
       <c r="J30" t="n">
-        <v>948.3960195129187</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K30" t="n">
-        <v>1114.56207011439</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L30" t="n">
-        <v>1337.992831312365</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M30" t="n">
-        <v>1598.725991082226</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.359981755465</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.192796677323</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P30" t="n">
-        <v>2307.69271549436</v>
+        <v>1540.826855504822</v>
       </c>
       <c r="Q30" t="n">
-        <v>2380.102340899829</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R30" t="n">
-        <v>2443.992571291073</v>
+        <v>1677.126711301534</v>
       </c>
       <c r="S30" t="n">
-        <v>2400.039033764342</v>
+        <v>1633.173173774804</v>
       </c>
       <c r="T30" t="n">
-        <v>2274.092325425019</v>
+        <v>1507.226465435481</v>
       </c>
       <c r="U30" t="n">
-        <v>2097.82485245105</v>
+        <v>1330.958992461512</v>
       </c>
       <c r="V30" t="n">
-        <v>1898.707334513049</v>
+        <v>1131.841474523511</v>
       </c>
       <c r="W30" t="n">
-        <v>1713.384580246243</v>
+        <v>946.5187202567049</v>
       </c>
       <c r="X30" t="n">
-        <v>1558.517144485123</v>
+        <v>791.6512844955849</v>
       </c>
       <c r="Y30" t="n">
-        <v>1432.031365264344</v>
+        <v>665.1655052748057</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.3673833116843</v>
+        <v>746.2960817164848</v>
       </c>
       <c r="C31" t="n">
-        <v>628.8056717949092</v>
+        <v>573.7343701997097</v>
       </c>
       <c r="D31" t="n">
-        <v>462.927678996432</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="E31" t="n">
-        <v>293.1696752471692</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="F31" t="n">
-        <v>213.590904384819</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G31" t="n">
-        <v>48.87985142582146</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H31" t="n">
-        <v>48.87985142582146</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I31" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="J31" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388674</v>
       </c>
       <c r="K31" t="n">
-        <v>571.4419816982402</v>
+        <v>210.1038419624147</v>
       </c>
       <c r="L31" t="n">
-        <v>699.702775648498</v>
+        <v>539.0117042834553</v>
       </c>
       <c r="M31" t="n">
-        <v>1294.419666559648</v>
+        <v>1133.728595194605</v>
       </c>
       <c r="N31" t="n">
-        <v>1868.695954403894</v>
+        <v>1708.004883038852</v>
       </c>
       <c r="O31" t="n">
-        <v>1990.635469161055</v>
+        <v>2249.613647021794</v>
       </c>
       <c r="P31" t="n">
-        <v>2185.761192734338</v>
+        <v>2353.95396759867</v>
       </c>
       <c r="Q31" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R31" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S31" t="n">
-        <v>2300.09107170807</v>
+        <v>2300.091071708069</v>
       </c>
       <c r="T31" t="n">
-        <v>2057.972573896817</v>
+        <v>2248.293026968205</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.587585259841</v>
+        <v>1969.908038331229</v>
       </c>
       <c r="V31" t="n">
-        <v>1492.632077130272</v>
+        <v>1682.95253020166</v>
       </c>
       <c r="W31" t="n">
-        <v>1220.605672716563</v>
+        <v>1410.926125787951</v>
       </c>
       <c r="X31" t="n">
-        <v>1220.605672716563</v>
+        <v>1165.534371121364</v>
       </c>
       <c r="Y31" t="n">
-        <v>993.1860020306715</v>
+        <v>938.1147004354718</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.574283500451</v>
+        <v>1573.901674572565</v>
       </c>
       <c r="C32" t="n">
-        <v>1346.431810683874</v>
+        <v>1135.759201755989</v>
       </c>
       <c r="D32" t="n">
-        <v>910.5220258583186</v>
+        <v>699.8494169304331</v>
       </c>
       <c r="E32" t="n">
-        <v>476.7472810166137</v>
+        <v>699.8494169304331</v>
       </c>
       <c r="F32" t="n">
-        <v>48.87985142582146</v>
+        <v>271.9819873396409</v>
       </c>
       <c r="G32" t="n">
         <v>48.87985142582146</v>
@@ -6727,25 +6727,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="T32" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.992571291073</v>
+        <v>2000.201245057473</v>
       </c>
       <c r="X32" t="n">
-        <v>2443.992571291073</v>
+        <v>2000.201245057473</v>
       </c>
       <c r="Y32" t="n">
-        <v>2210.873853985358</v>
+        <v>2000.201245057473</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>960.6849391111014</v>
+        <v>1092.761139503991</v>
       </c>
       <c r="C34" t="n">
-        <v>788.1232275943263</v>
+        <v>920.1994279872162</v>
       </c>
       <c r="D34" t="n">
-        <v>622.245234795849</v>
+        <v>754.3214351887389</v>
       </c>
       <c r="E34" t="n">
-        <v>452.4872310465863</v>
+        <v>584.5634314394762</v>
       </c>
       <c r="F34" t="n">
-        <v>275.7801770083425</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G34" t="n">
-        <v>111.069124049345</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H34" t="n">
         <v>111.069124049345</v>
@@ -6858,25 +6858,25 @@
         <v>48.87985142582146</v>
       </c>
       <c r="J34" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388674</v>
       </c>
       <c r="K34" t="n">
-        <v>571.4419816982402</v>
+        <v>210.1038419624147</v>
       </c>
       <c r="L34" t="n">
-        <v>885.2400878322076</v>
+        <v>539.0117042834557</v>
       </c>
       <c r="M34" t="n">
-        <v>1479.956978743357</v>
+        <v>1133.728595194606</v>
       </c>
       <c r="N34" t="n">
-        <v>1611.97446342996</v>
+        <v>1708.004883038852</v>
       </c>
       <c r="O34" t="n">
-        <v>1733.91397818712</v>
+        <v>2249.613647021794</v>
       </c>
       <c r="P34" t="n">
-        <v>2185.761192734338</v>
+        <v>2353.95396759867</v>
       </c>
       <c r="Q34" t="n">
         <v>2426.193797186283</v>
@@ -6885,25 +6885,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S34" t="n">
-        <v>2443.992571291073</v>
+        <v>2300.09107170807</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.87407347982</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U34" t="n">
-        <v>1923.489084842844</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.533576713275</v>
+        <v>1771.017065767248</v>
       </c>
       <c r="W34" t="n">
-        <v>1625.314983182568</v>
+        <v>1498.990661353539</v>
       </c>
       <c r="X34" t="n">
-        <v>1379.92322851598</v>
+        <v>1284.579758222978</v>
       </c>
       <c r="Y34" t="n">
-        <v>1152.503557830089</v>
+        <v>1284.579758222978</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>886.4578516291604</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="C35" t="n">
-        <v>448.3153788125837</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="D35" t="n">
-        <v>448.3153788125837</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="E35" t="n">
-        <v>448.3153788125837</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="F35" t="n">
-        <v>448.3153788125837</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G35" t="n">
-        <v>48.87985142582144</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H35" t="n">
         <v>48.87985142582144</v>
@@ -6964,25 +6964,25 @@
         <v>2443.992571291072</v>
       </c>
       <c r="S35" t="n">
-        <v>2405.056699646439</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="T35" t="n">
-        <v>2405.056699646439</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U35" t="n">
-        <v>2405.056699646439</v>
+        <v>1973.450011516436</v>
       </c>
       <c r="V35" t="n">
-        <v>2118.741893339163</v>
+        <v>1610.833061450263</v>
       </c>
       <c r="W35" t="n">
-        <v>1713.886438750196</v>
+        <v>1610.833061450263</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.743975329507</v>
+        <v>1553.502640923186</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.4578516291604</v>
+        <v>1145.21651722284</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1310.72746418458</v>
+        <v>543.8616041950426</v>
       </c>
       <c r="C36" t="n">
-        <v>1204.271003021222</v>
+        <v>437.4051430316849</v>
       </c>
       <c r="D36" t="n">
-        <v>1109.180714167775</v>
+        <v>342.3148541782381</v>
       </c>
       <c r="E36" t="n">
-        <v>1015.060299494729</v>
+        <v>248.1944395051918</v>
       </c>
       <c r="F36" t="n">
-        <v>931.6764611108904</v>
+        <v>164.8106011213534</v>
       </c>
       <c r="G36" t="n">
-        <v>847.3412965732193</v>
+        <v>80.47543658368232</v>
       </c>
       <c r="H36" t="n">
-        <v>815.7457114153584</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I36" t="n">
-        <v>851.1750917891409</v>
+        <v>84.30923179960392</v>
       </c>
       <c r="J36" t="n">
-        <v>948.3960195129179</v>
+        <v>122.5847930309432</v>
       </c>
       <c r="K36" t="n">
-        <v>1114.562070114389</v>
+        <v>288.7508436324146</v>
       </c>
       <c r="L36" t="n">
-        <v>1279.047464819927</v>
+        <v>512.1816048303893</v>
       </c>
       <c r="M36" t="n">
-        <v>1539.780624589788</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N36" t="n">
-        <v>1807.414615263028</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O36" t="n">
-        <v>2052.247430184885</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P36" t="n">
-        <v>2248.747349001922</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q36" t="n">
-        <v>2380.102340899829</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R36" t="n">
-        <v>2443.992571291072</v>
+        <v>1677.126711301534</v>
       </c>
       <c r="S36" t="n">
-        <v>2400.039033764341</v>
+        <v>1633.173173774804</v>
       </c>
       <c r="T36" t="n">
-        <v>2274.092325425018</v>
+        <v>1507.226465435481</v>
       </c>
       <c r="U36" t="n">
-        <v>2097.824852451049</v>
+        <v>1330.958992461512</v>
       </c>
       <c r="V36" t="n">
-        <v>1898.707334513048</v>
+        <v>1131.841474523511</v>
       </c>
       <c r="W36" t="n">
-        <v>1713.384580246242</v>
+        <v>946.5187202567049</v>
       </c>
       <c r="X36" t="n">
-        <v>1558.517144485122</v>
+        <v>791.6512844955849</v>
       </c>
       <c r="Y36" t="n">
-        <v>1432.031365264343</v>
+        <v>665.1655052748057</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.761139503991</v>
+        <v>699.8771282280993</v>
       </c>
       <c r="C37" t="n">
-        <v>920.1994279872162</v>
+        <v>527.3154167113242</v>
       </c>
       <c r="D37" t="n">
-        <v>754.3214351887389</v>
+        <v>361.437423912847</v>
       </c>
       <c r="E37" t="n">
-        <v>584.5634314394762</v>
+        <v>191.6794201635842</v>
       </c>
       <c r="F37" t="n">
-        <v>407.8563774012324</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1453244422349</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="H37" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I37" t="n">
         <v>48.87985142582144</v>
@@ -7098,22 +7098,22 @@
         <v>196.4528223035573</v>
       </c>
       <c r="K37" t="n">
-        <v>452.0248957461495</v>
+        <v>571.4419816982402</v>
       </c>
       <c r="L37" t="n">
-        <v>998.4955714643683</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M37" t="n">
-        <v>1133.728595194605</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N37" t="n">
-        <v>1708.004883038852</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O37" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P37" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734337</v>
       </c>
       <c r="Q37" t="n">
         <v>2426.193797186283</v>
@@ -7128,19 +7128,19 @@
         <v>2201.87407347982</v>
       </c>
       <c r="U37" t="n">
-        <v>2201.87407347982</v>
+        <v>1923.489084842844</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.417587989166</v>
+        <v>1636.533576713274</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.391183575458</v>
+        <v>1364.507172299566</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.99942890887</v>
+        <v>1119.115417632978</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.579758222978</v>
+        <v>891.6957469470865</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1784.574283500451</v>
+        <v>1526.228016171458</v>
       </c>
       <c r="C38" t="n">
-        <v>1346.431810683874</v>
+        <v>1526.228016171458</v>
       </c>
       <c r="D38" t="n">
-        <v>910.5220258583186</v>
+        <v>1526.228016171458</v>
       </c>
       <c r="E38" t="n">
-        <v>476.7472810166137</v>
+        <v>1092.453271329753</v>
       </c>
       <c r="F38" t="n">
-        <v>48.87985142582146</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G38" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H38" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="I38" t="n">
-        <v>122.6176114159378</v>
+        <v>122.617611415938</v>
       </c>
       <c r="J38" t="n">
         <v>285.8514025294307</v>
@@ -7180,7 +7180,7 @@
         <v>530.4965414133957</v>
       </c>
       <c r="L38" t="n">
-        <v>834.0004692019343</v>
+        <v>834.0004692019344</v>
       </c>
       <c r="M38" t="n">
         <v>1171.707067812895</v>
@@ -7204,22 +7204,22 @@
         <v>2405.05669964644</v>
       </c>
       <c r="T38" t="n">
-        <v>2405.05669964644</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="U38" t="n">
-        <v>2405.05669964644</v>
+        <v>1934.514139871804</v>
       </c>
       <c r="V38" t="n">
-        <v>2405.05669964644</v>
+        <v>1934.514139871804</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.05669964644</v>
+        <v>1934.514139871804</v>
       </c>
       <c r="X38" t="n">
-        <v>2405.05669964644</v>
+        <v>1934.514139871804</v>
       </c>
       <c r="Y38" t="n">
-        <v>1996.770575946093</v>
+        <v>1526.228016171458</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1344.326936687785</v>
       </c>
       <c r="P39" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q39" t="n">
-        <v>1672.181847402728</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R39" t="n">
         <v>1677.126711301534</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.7846135285804</v>
+        <v>828.0020330588052</v>
       </c>
       <c r="C40" t="n">
-        <v>561.2229020118053</v>
+        <v>655.4403215420301</v>
       </c>
       <c r="D40" t="n">
-        <v>395.344909213328</v>
+        <v>489.5623287435528</v>
       </c>
       <c r="E40" t="n">
-        <v>225.5869054640652</v>
+        <v>319.8043249942901</v>
       </c>
       <c r="F40" t="n">
-        <v>48.87985142582146</v>
+        <v>319.8043249942901</v>
       </c>
       <c r="G40" t="n">
-        <v>48.87985142582146</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H40" t="n">
-        <v>48.87985142582146</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I40" t="n">
         <v>48.87985142582146</v>
@@ -7338,13 +7338,13 @@
         <v>571.4419816982402</v>
       </c>
       <c r="L40" t="n">
-        <v>1117.912657416459</v>
+        <v>699.702775648498</v>
       </c>
       <c r="M40" t="n">
-        <v>1479.956978743357</v>
+        <v>1294.419666559648</v>
       </c>
       <c r="N40" t="n">
-        <v>1611.97446342996</v>
+        <v>1426.43715124625</v>
       </c>
       <c r="O40" t="n">
         <v>1733.91397818712</v>
@@ -7365,19 +7365,19 @@
         <v>2057.972573896817</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.396570143325</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V40" t="n">
-        <v>1670.441062013755</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.414657600047</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="X40" t="n">
-        <v>1153.022902933459</v>
+        <v>1247.240322463684</v>
       </c>
       <c r="Y40" t="n">
-        <v>925.6032322475676</v>
+        <v>1019.820651777792</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1784.574283500451</v>
+        <v>1748.100026061657</v>
       </c>
       <c r="C41" t="n">
-        <v>1346.431810683874</v>
+        <v>1309.957553245081</v>
       </c>
       <c r="D41" t="n">
-        <v>910.5220258583186</v>
+        <v>1309.957553245081</v>
       </c>
       <c r="E41" t="n">
-        <v>476.7472810166137</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="F41" t="n">
-        <v>48.87985142582144</v>
+        <v>448.3153788125837</v>
       </c>
       <c r="G41" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H41" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I41" t="n">
-        <v>122.6176114159376</v>
+        <v>122.6176114159378</v>
       </c>
       <c r="J41" t="n">
-        <v>285.8514025294302</v>
+        <v>285.8514025294304</v>
       </c>
       <c r="K41" t="n">
-        <v>530.4965414133952</v>
+        <v>530.4965414133954</v>
       </c>
       <c r="L41" t="n">
-        <v>834.0004692019339</v>
+        <v>834.0004692019342</v>
       </c>
       <c r="M41" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N41" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O41" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.924798328299</v>
       </c>
       <c r="P41" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q41" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383278</v>
       </c>
       <c r="R41" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T41" t="n">
-        <v>2443.992571291072</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.992571291072</v>
+        <v>2174.399596546565</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.992571291072</v>
+        <v>2174.399596546565</v>
       </c>
       <c r="W41" t="n">
-        <v>2443.992571291072</v>
+        <v>2174.399596546565</v>
       </c>
       <c r="X41" t="n">
-        <v>2443.992571291072</v>
+        <v>2174.399596546565</v>
       </c>
       <c r="Y41" t="n">
-        <v>2035.706447590725</v>
+        <v>2174.399596546565</v>
       </c>
     </row>
     <row r="42">
@@ -7481,19 +7481,19 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G42" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H42" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I42" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J42" t="n">
         <v>146.1007791495983</v>
       </c>
       <c r="K42" t="n">
-        <v>312.2668297510696</v>
+        <v>312.2668297510697</v>
       </c>
       <c r="L42" t="n">
         <v>535.6975909490444</v>
@@ -7502,7 +7502,7 @@
         <v>796.430750718906</v>
       </c>
       <c r="N42" t="n">
-        <v>1040.54875527349</v>
+        <v>1064.064741392145</v>
       </c>
       <c r="O42" t="n">
         <v>1285.381570195347</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>898.4956664875779</v>
+        <v>699.8771282280998</v>
       </c>
       <c r="C43" t="n">
-        <v>725.9339549708028</v>
+        <v>699.8771282280998</v>
       </c>
       <c r="D43" t="n">
-        <v>560.0559621723255</v>
+        <v>533.9991354296225</v>
       </c>
       <c r="E43" t="n">
-        <v>390.2979584230628</v>
+        <v>364.2411316803597</v>
       </c>
       <c r="F43" t="n">
-        <v>213.590904384819</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="G43" t="n">
-        <v>48.87985142582144</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H43" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I43" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J43" t="n">
         <v>109.8731371388674</v>
@@ -7575,46 +7575,46 @@
         <v>210.1038419624147</v>
       </c>
       <c r="L43" t="n">
-        <v>539.0117042834553</v>
+        <v>338.3646359126725</v>
       </c>
       <c r="M43" t="n">
-        <v>1133.728595194605</v>
+        <v>618.0289263599313</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.004883038852</v>
+        <v>1192.305214204178</v>
       </c>
       <c r="O43" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P43" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q43" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S43" t="n">
-        <v>2300.091071708069</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.972573896817</v>
+        <v>2201.87407347982</v>
       </c>
       <c r="U43" t="n">
-        <v>1779.587585259841</v>
+        <v>1923.489084842844</v>
       </c>
       <c r="V43" t="n">
-        <v>1779.587585259841</v>
+        <v>1636.533576713275</v>
       </c>
       <c r="W43" t="n">
-        <v>1507.561180846132</v>
+        <v>1364.507172299566</v>
       </c>
       <c r="X43" t="n">
-        <v>1317.733955892457</v>
+        <v>1119.115417632979</v>
       </c>
       <c r="Y43" t="n">
-        <v>1090.314285206565</v>
+        <v>891.6957469470869</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1211.70852958107</v>
+        <v>1619.994653281417</v>
       </c>
       <c r="C44" t="n">
-        <v>1211.70852958107</v>
+        <v>1181.85218046484</v>
       </c>
       <c r="D44" t="n">
-        <v>1211.70852958107</v>
+        <v>745.9423956392843</v>
       </c>
       <c r="E44" t="n">
-        <v>777.9337847393649</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F44" t="n">
-        <v>448.3153788125837</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="G44" t="n">
         <v>48.87985142582146</v>
@@ -7693,7 +7693,7 @@
         <v>1619.994653281417</v>
       </c>
       <c r="Y44" t="n">
-        <v>1211.70852958107</v>
+        <v>1619.994653281417</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>84.30923179960394</v>
       </c>
       <c r="J45" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309432</v>
       </c>
       <c r="K45" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324146</v>
       </c>
       <c r="L45" t="n">
-        <v>571.1269713228269</v>
+        <v>512.1816048303893</v>
       </c>
       <c r="M45" t="n">
-        <v>831.8601310926884</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O45" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P45" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q45" t="n">
-        <v>1672.181847402728</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R45" t="n">
         <v>1677.126711301534</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7886124493341</v>
+        <v>1092.761139503991</v>
       </c>
       <c r="C46" t="n">
-        <v>549.226900932559</v>
+        <v>920.1994279872162</v>
       </c>
       <c r="D46" t="n">
-        <v>383.3489081340817</v>
+        <v>754.3214351887389</v>
       </c>
       <c r="E46" t="n">
-        <v>213.590904384819</v>
+        <v>584.5634314394762</v>
       </c>
       <c r="F46" t="n">
-        <v>213.590904384819</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G46" t="n">
-        <v>48.87985142582146</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H46" t="n">
-        <v>48.87985142582146</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I46" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="J46" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388674</v>
       </c>
       <c r="K46" t="n">
-        <v>296.6835271271046</v>
+        <v>484.8622965335504</v>
       </c>
       <c r="L46" t="n">
-        <v>539.0117042834557</v>
+        <v>925.054705787339</v>
       </c>
       <c r="M46" t="n">
-        <v>1133.728595194606</v>
+        <v>1060.287729517576</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.004883038852</v>
+        <v>1192.305214204178</v>
       </c>
       <c r="O46" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P46" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q46" t="n">
         <v>2426.193797186283</v>
@@ -7836,22 +7836,22 @@
         <v>2443.992571291073</v>
       </c>
       <c r="T46" t="n">
-        <v>2223.785557701055</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="U46" t="n">
-        <v>1945.400569064079</v>
+        <v>2165.607582654096</v>
       </c>
       <c r="V46" t="n">
-        <v>1658.445060934509</v>
+        <v>2029.417587989166</v>
       </c>
       <c r="W46" t="n">
-        <v>1386.418656520801</v>
+        <v>1757.391183575458</v>
       </c>
       <c r="X46" t="n">
-        <v>1141.026901854213</v>
+        <v>1511.99942890887</v>
       </c>
       <c r="Y46" t="n">
-        <v>913.6072311683213</v>
+        <v>1284.579758222978</v>
       </c>
     </row>
   </sheetData>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464598</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>45.75904403825018</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9327,10 +9327,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825018</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>81.48308576736531</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>152.9002451588997</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>202.6738064351346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>229.1023208047086</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>202.6738064351346</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>244.3647007916516</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>202.6738064351342</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10284,13 +10284,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>91.70242726909783</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>187.4114264481915</v>
+        <v>202.6738064351346</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>156.9104733525705</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10755,16 +10755,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>229.1023208047081</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>229.1023208047086</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>187.4114264481916</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>202.6738064351342</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>145.8901684010324</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,10 +11235,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>115.2195789960539</v>
+        <v>315.0824397005364</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.16292168933184</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>28.28813805503963</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>26.17444847102748</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>21.52200224723448</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>11.68848986422212</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.565053562208732</v>
+        <v>211.1660862227208</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>187.3620226258313</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>114.8692533779061</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23512,7 +23512,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>126.7797065561529</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>52.13516386682193</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>136.3926684020055</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.6470397948863535</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>41.32587622678437</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>85.34545380358779</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>10.75588473158643</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>148.3543214983355</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>203.7147550774185</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>388.2847795410158</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>71.1212152900568</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>136.9200085759689</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.343371731269</v>
+        <v>222.9979694180298</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4746651801473</v>
       </c>
       <c r="V23" t="n">
-        <v>59.13958752311572</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.5011300466732</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>63.49369871344999</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3624689967422</v>
+        <v>200.8918989922093</v>
       </c>
       <c r="U26" t="n">
         <v>256.4746651801473</v>
       </c>
       <c r="V26" t="n">
-        <v>61.3776509491741</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4624845871731</v>
+        <v>99.39752463091611</v>
       </c>
       <c r="T28" t="n">
         <v>239.69731283314</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.50241994103195</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H29" t="n">
-        <v>266.343371731269</v>
+        <v>236.9293806034316</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>209.3624689967422</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>152.1860575937045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>96.15700034413463</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>188.4172485406746</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4411721128946</v>
+        <v>174.5700575582134</v>
       </c>
       <c r="H32" t="n">
         <v>266.343371731269</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3624689967422</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.415732330686</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1997327741717</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>30.67104302066639</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>75.53912232130779</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>358.1939224646766</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.5684104474762</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>113.3540324125267</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>211.9622452588726</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>52.23561343415616</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0639424294076</v>
+        <v>87.17153188287293</v>
       </c>
       <c r="H40" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>176.0308950346488</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>173.4157323306867</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>266.343371731269</v>
@@ -25681,10 +25681,10 @@
         <v>38.54651292818659</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4746651801473</v>
+        <v>198.940089179827</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>156.551696864237</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>61.56737989728833</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.00888441578286</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>162.9338339168439</v>
       </c>
       <c r="F44" t="n">
-        <v>97.26653342737097</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H44" t="n">
         <v>266.343371731269</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T46" t="n">
-        <v>21.69236937902218</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>149.2578583299929</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350825.1183086952</v>
+        <v>350825.1183086953</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350825.1183086953</v>
+        <v>350825.1183086952</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360631.6185170677</v>
+        <v>360631.6185170678</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360631.6185170678</v>
+        <v>360631.6185170677</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>360631.6185170677</v>
+        <v>360631.6185170678</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>220216.5998211443</v>
       </c>
       <c r="F2" t="n">
-        <v>220216.5998211443</v>
+        <v>220216.5998211442</v>
       </c>
       <c r="G2" t="n">
         <v>220216.5998211443</v>
@@ -26337,7 +26337,7 @@
         <v>226276.69245683</v>
       </c>
       <c r="J2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568299</v>
       </c>
       <c r="K2" t="n">
         <v>226276.69245683</v>
@@ -26352,10 +26352,10 @@
         <v>226276.69245683</v>
       </c>
       <c r="O2" t="n">
-        <v>226276.6924568299</v>
+        <v>226276.69245683</v>
       </c>
       <c r="P2" t="n">
-        <v>226276.6924568301</v>
+        <v>226276.69245683</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18012.50673044238</v>
+        <v>18012.50673044241</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>839.6756910242099</v>
+        <v>839.6756910242827</v>
       </c>
       <c r="L3" t="n">
-        <v>9630.733667017972</v>
+        <v>9630.733667018056</v>
       </c>
       <c r="M3" t="n">
         <v>136754.9043831154</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>298397.3305546049</v>
@@ -26438,16 +26438,16 @@
         <v>20967.98795247262</v>
       </c>
       <c r="I4" t="n">
+        <v>21697.14247521196</v>
+      </c>
+      <c r="J4" t="n">
         <v>21697.14247521197</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21697.14247521196</v>
       </c>
       <c r="K4" t="n">
         <v>21697.14247521196</v>
       </c>
       <c r="L4" t="n">
-        <v>21697.14247521196</v>
+        <v>21697.14247521197</v>
       </c>
       <c r="M4" t="n">
         <v>21697.14247521196</v>
@@ -26459,7 +26459,7 @@
         <v>21697.14247521196</v>
       </c>
       <c r="P4" t="n">
-        <v>21697.14247521197</v>
+        <v>21697.14247521196</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34010.9267110214</v>
+        <v>33979.01999351977</v>
       </c>
       <c r="C6" t="n">
-        <v>31315.03859072168</v>
+        <v>31285.65147189179</v>
       </c>
       <c r="D6" t="n">
-        <v>6017.455938250663</v>
+        <v>6017.455938250605</v>
       </c>
       <c r="E6" t="n">
-        <v>-359287.9788969479</v>
+        <v>-359841.8593401698</v>
       </c>
       <c r="F6" t="n">
-        <v>153197.5306590339</v>
+        <v>152643.6502158119</v>
       </c>
       <c r="G6" t="n">
-        <v>153197.5306590339</v>
+        <v>152643.6502158119</v>
       </c>
       <c r="H6" t="n">
-        <v>153197.5306590339</v>
+        <v>152643.6502158119</v>
       </c>
       <c r="I6" t="n">
-        <v>138883.6830455367</v>
+        <v>138351.4457902994</v>
       </c>
       <c r="J6" t="n">
-        <v>156896.1897759791</v>
+        <v>156363.9525207417</v>
       </c>
       <c r="K6" t="n">
-        <v>156056.5140849549</v>
+        <v>155524.2768297175</v>
       </c>
       <c r="L6" t="n">
-        <v>147265.4561089611</v>
+        <v>146733.2188537237</v>
       </c>
       <c r="M6" t="n">
-        <v>20141.28539286379</v>
+        <v>19609.04813762641</v>
       </c>
       <c r="N6" t="n">
-        <v>156896.1897759791</v>
+        <v>156363.9525207417</v>
       </c>
       <c r="O6" t="n">
-        <v>156896.1897759791</v>
+        <v>156363.9525207418</v>
       </c>
       <c r="P6" t="n">
-        <v>156896.1897759792</v>
+        <v>156363.9525207417</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
@@ -26798,7 +26798,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26807,7 +26807,7 @@
         <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="I4" t="n">
         <v>610.9981428227682</v>
@@ -26816,7 +26816,7 @@
         <v>610.9981428227682</v>
       </c>
       <c r="K4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.998142822768</v>
       </c>
       <c r="L4" t="n">
         <v>610.9981428227682</v>
@@ -26828,7 +26828,7 @@
         <v>610.9981428227682</v>
       </c>
       <c r="O4" t="n">
-        <v>610.998142822768</v>
+        <v>610.9981428227682</v>
       </c>
       <c r="P4" t="n">
         <v>610.9981428227682</v>
@@ -27020,7 +27020,7 @@
         <v>38.05245412526707</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.91624846083414</v>
+        <v>20.91624846083425</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922259993</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
-        <v>38.05245412526708</v>
+        <v>38.05245412526742</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144065</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>38.05245412526707</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27700,7 +27700,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -27712,7 +27712,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H6" t="n">
-        <v>38.58576236287865</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.71451543789636</v>
+        <v>60.03728833942184</v>
       </c>
       <c r="T6" t="n">
         <v>128.8537753079323</v>
@@ -27754,7 +27754,7 @@
         <v>174.5728047847957</v>
       </c>
       <c r="V6" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.9583725063111</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27824,7 +27824,7 @@
         <v>17.72522696250731</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1630844234352</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T7" t="n">
         <v>243.400138899798</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>241.5356336162192</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27946,7 +27946,7 @@
         <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>30.93157046990759</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>143.9878130756836</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28025,10 +28025,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>147.8036230110422</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>186.3057518233248</v>
       </c>
     </row>
     <row r="11">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,13 +32323,13 @@
         <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108062</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32566,7 +32566,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32791,7 +32791,7 @@
         <v>98.20295729674433</v>
       </c>
       <c r="K24" t="n">
-        <v>167.8444955570417</v>
+        <v>108.3037213222563</v>
       </c>
       <c r="L24" t="n">
         <v>225.6876375737119</v>
@@ -32809,7 +32809,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R24" t="n">
         <v>64.53558625378177</v>
@@ -33031,10 +33031,10 @@
         <v>167.8444955570417</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1468633389266</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M27" t="n">
-        <v>263.3668280503653</v>
+        <v>203.8260538155798</v>
       </c>
       <c r="N27" t="n">
         <v>270.3373643164032</v>
@@ -33736,13 +33736,13 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674433</v>
+        <v>38.66218306195891</v>
       </c>
       <c r="K36" t="n">
         <v>167.8444955570417</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1468633389268</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M36" t="n">
         <v>263.3668280503653</v>
@@ -33991,13 +33991,13 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q39" t="n">
         <v>132.6818099978853</v>
       </c>
       <c r="R39" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378177</v>
       </c>
       <c r="S39" t="n">
         <v>19.30688102463729</v>
@@ -34222,10 +34222,10 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N42" t="n">
-        <v>246.5838429844283</v>
+        <v>270.3373643164032</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3058736584415</v>
+        <v>223.5523523264665</v>
       </c>
       <c r="P42" t="n">
         <v>198.4847664818558</v>
@@ -34447,7 +34447,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J45" t="n">
-        <v>98.20295729674433</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K45" t="n">
         <v>167.8444955570417</v>
@@ -34471,7 +34471,7 @@
         <v>132.6818099978853</v>
       </c>
       <c r="R45" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378177</v>
       </c>
       <c r="S45" t="n">
         <v>19.30688102463729</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817428</v>
       </c>
       <c r="K5" t="n">
-        <v>1.361442175632203</v>
+        <v>1.361442175632202</v>
       </c>
       <c r="L5" t="n">
-        <v>1.688989405823953</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
         <v>1.879326147397212</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35421,13 +35421,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562317</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -35576,7 +35576,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712369</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916794</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646688</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35810,25 +35810,25 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>170.8810658749147</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108062</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36047,19 +36047,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>170.8810658749147</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>183.2700111993688</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36126,7 +36126,7 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816035</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
@@ -36214,7 +36214,7 @@
         <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -36223,7 +36223,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409511</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>271.8556808637095</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027013</v>
@@ -36357,16 +36357,16 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J23" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863564</v>
       </c>
       <c r="K23" t="n">
-        <v>247.1163019029951</v>
+        <v>247.116301902995</v>
       </c>
       <c r="L23" t="n">
-        <v>306.569624028827</v>
+        <v>306.5696240288269</v>
       </c>
       <c r="M23" t="n">
-        <v>341.1177763747081</v>
+        <v>341.117776374708</v>
       </c>
       <c r="N23" t="n">
         <v>346.6374186241064</v>
@@ -36439,7 +36439,7 @@
         <v>98.20295729674433</v>
       </c>
       <c r="K24" t="n">
-        <v>167.8444955570417</v>
+        <v>108.3037213222563</v>
       </c>
       <c r="L24" t="n">
         <v>225.6876375737119</v>
@@ -36457,7 +36457,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R24" t="n">
         <v>64.53558625378173</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>61.60937950812726</v>
+        <v>149.0636069472079</v>
       </c>
       <c r="K25" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L25" t="n">
-        <v>332.2301639606475</v>
+        <v>551.9905815335545</v>
       </c>
       <c r="M25" t="n">
-        <v>600.7241322334847</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N25" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O25" t="n">
-        <v>547.0795595787295</v>
+        <v>352.2735478321438</v>
       </c>
       <c r="P25" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R25" t="n">
         <v>17.9785597018076</v>
@@ -36594,7 +36594,7 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J26" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K26" t="n">
         <v>247.116301902995</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.78725290281056</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J27" t="n">
         <v>98.20295729674433</v>
@@ -36679,10 +36679,10 @@
         <v>167.8444955570417</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1468633389266</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M27" t="n">
-        <v>263.3668280503653</v>
+        <v>203.8260538155798</v>
       </c>
       <c r="N27" t="n">
         <v>270.3373643164032</v>
@@ -36694,7 +36694,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.6818099978855</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R27" t="n">
         <v>64.53558625378173</v>
@@ -36758,19 +36758,19 @@
         <v>101.2431361854013</v>
       </c>
       <c r="L28" t="n">
-        <v>551.9905815335544</v>
+        <v>332.2301639606475</v>
       </c>
       <c r="M28" t="n">
-        <v>136.5990138689261</v>
+        <v>600.7241322334847</v>
       </c>
       <c r="N28" t="n">
-        <v>580.077058428532</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O28" t="n">
         <v>547.0795595787295</v>
       </c>
       <c r="P28" t="n">
-        <v>349.7589640006172</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q28" t="n">
         <v>72.96952483597261</v>
@@ -36837,13 +36837,13 @@
         <v>247.116301902995</v>
       </c>
       <c r="L29" t="n">
-        <v>306.5696240288269</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M29" t="n">
-        <v>341.1177763747082</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N29" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O29" t="n">
         <v>327.3198849268065</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.78725290281056</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J30" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674434</v>
       </c>
       <c r="K30" t="n">
         <v>167.8444955570417</v>
       </c>
       <c r="L30" t="n">
-        <v>225.687637573712</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M30" t="n">
         <v>263.3668280503653</v>
@@ -36925,7 +36925,7 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O30" t="n">
-        <v>247.3058736584417</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P30" t="n">
         <v>198.4847664818558</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812726</v>
       </c>
       <c r="K31" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L31" t="n">
-        <v>129.5563575255129</v>
+        <v>332.230163960647</v>
       </c>
       <c r="M31" t="n">
-        <v>600.7241322334846</v>
+        <v>600.7241322334847</v>
       </c>
       <c r="N31" t="n">
         <v>580.0770584285319</v>
       </c>
       <c r="O31" t="n">
-        <v>123.1712270274352</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P31" t="n">
-        <v>197.0966904780635</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R31" t="n">
         <v>17.9785597018076</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812726</v>
       </c>
       <c r="K34" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L34" t="n">
-        <v>316.9677839737044</v>
+        <v>332.2301639606475</v>
       </c>
       <c r="M34" t="n">
         <v>600.7241322334847</v>
       </c>
       <c r="N34" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O34" t="n">
-        <v>123.1712270274352</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P34" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q34" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R34" t="n">
         <v>17.9785597018076</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78725290281056</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674444</v>
+        <v>38.66218306195891</v>
       </c>
       <c r="K36" t="n">
-        <v>167.8444955570418</v>
+        <v>167.8444955570417</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1468633389268</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M36" t="n">
         <v>263.3668280503653</v>
@@ -37405,7 +37405,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.6818099978855</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R36" t="n">
         <v>64.53558625378173</v>
@@ -37466,25 +37466,25 @@
         <v>149.0636069472079</v>
       </c>
       <c r="K37" t="n">
-        <v>258.1536095379719</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L37" t="n">
-        <v>551.9905815335544</v>
+        <v>551.9905815335545</v>
       </c>
       <c r="M37" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N37" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O37" t="n">
-        <v>547.0795595787295</v>
+        <v>352.2735478321433</v>
       </c>
       <c r="P37" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R37" t="n">
         <v>17.9785597018076</v>
@@ -37542,16 +37542,16 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J38" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K38" t="n">
         <v>247.116301902995</v>
       </c>
       <c r="L38" t="n">
-        <v>306.5696240288269</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M38" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N38" t="n">
         <v>346.6374186241064</v>
@@ -37639,13 +37639,13 @@
         <v>247.3058736584414</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q39" t="n">
         <v>132.6818099978852</v>
       </c>
       <c r="R39" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>378.7769286814979</v>
       </c>
       <c r="L40" t="n">
-        <v>551.9905815335545</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M40" t="n">
-        <v>365.7013346736346</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N40" t="n">
         <v>133.3509946329314</v>
       </c>
       <c r="O40" t="n">
-        <v>123.1712270274352</v>
+        <v>310.5826534756268</v>
       </c>
       <c r="P40" t="n">
         <v>456.4113278254724</v>
@@ -37782,13 +37782,13 @@
         <v>164.8826172863562</v>
       </c>
       <c r="K41" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L41" t="n">
         <v>306.569624028827</v>
       </c>
       <c r="M41" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747081</v>
       </c>
       <c r="N41" t="n">
         <v>346.6374186241064</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>98.20295729674432</v>
+        <v>98.20295729674433</v>
       </c>
       <c r="K42" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L42" t="n">
         <v>225.6876375737119</v>
@@ -37870,10 +37870,10 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N42" t="n">
-        <v>246.5838429844283</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3058736584414</v>
+        <v>223.5523523264665</v>
       </c>
       <c r="P42" t="n">
         <v>198.4847664818558</v>
@@ -37940,25 +37940,25 @@
         <v>61.60937950812726</v>
       </c>
       <c r="K43" t="n">
-        <v>101.2431361854014</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L43" t="n">
-        <v>332.230163960647</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M43" t="n">
-        <v>600.7241322334847</v>
+        <v>282.4891822699585</v>
       </c>
       <c r="N43" t="n">
         <v>580.0770584285319</v>
       </c>
       <c r="O43" t="n">
-        <v>547.0795595787295</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P43" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R43" t="n">
         <v>17.9785597018076</v>
@@ -38095,7 +38095,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J45" t="n">
-        <v>98.20295729674433</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K45" t="n">
         <v>167.8444955570417</v>
@@ -38119,7 +38119,7 @@
         <v>132.6818099978852</v>
       </c>
       <c r="R45" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812726</v>
       </c>
       <c r="K46" t="n">
-        <v>101.2431361854014</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L46" t="n">
-        <v>244.7759365215668</v>
+        <v>444.6387972260492</v>
       </c>
       <c r="M46" t="n">
-        <v>600.7241322334847</v>
+        <v>136.5990138689261</v>
       </c>
       <c r="N46" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O46" t="n">
-        <v>547.0795595787295</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P46" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R46" t="n">
         <v>17.9785597018076</v>
